--- a/data/standing.xlsx
+++ b/data/standing.xlsx
@@ -559,7 +559,7 @@
         <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -576,7 +576,7 @@
         <v>1981</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>27</v>
@@ -599,13 +599,13 @@
         <v>1954</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -674,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -806,7 +806,7 @@
         <v>1962</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -829,13 +829,13 @@
         <v>49202</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">

--- a/data/standing.xlsx
+++ b/data/standing.xlsx
@@ -694,10 +694,10 @@
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -737,7 +737,7 @@
         <v>1966</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
@@ -760,13 +760,13 @@
         <v>1980</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">

--- a/data/standing.xlsx
+++ b/data/standing.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +473,11 @@
           <t>matches</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>dt_insertion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -492,6 +501,9 @@
       <c r="G2" t="n">
         <v>16</v>
       </c>
+      <c r="H2" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -515,6 +527,9 @@
       <c r="G3" t="n">
         <v>16</v>
       </c>
+      <c r="H3" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -538,6 +553,9 @@
       <c r="G4" t="n">
         <v>16</v>
       </c>
+      <c r="H4" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -561,6 +579,9 @@
       <c r="G5" t="n">
         <v>17</v>
       </c>
+      <c r="H5" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -584,6 +605,9 @@
       <c r="G6" t="n">
         <v>16</v>
       </c>
+      <c r="H6" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -607,6 +631,9 @@
       <c r="G7" t="n">
         <v>16</v>
       </c>
+      <c r="H7" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -630,6 +657,9 @@
       <c r="G8" t="n">
         <v>15</v>
       </c>
+      <c r="H8" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -653,6 +683,9 @@
       <c r="G9" t="n">
         <v>16</v>
       </c>
+      <c r="H9" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -676,6 +709,9 @@
       <c r="G10" t="n">
         <v>16</v>
       </c>
+      <c r="H10" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -699,6 +735,9 @@
       <c r="G11" t="n">
         <v>16</v>
       </c>
+      <c r="H11" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -722,6 +761,9 @@
       <c r="G12" t="n">
         <v>16</v>
       </c>
+      <c r="H12" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -745,6 +787,9 @@
       <c r="G13" t="n">
         <v>13</v>
       </c>
+      <c r="H13" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -768,6 +813,9 @@
       <c r="G14" t="n">
         <v>15</v>
       </c>
+      <c r="H14" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -789,7 +837,10 @@
         <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45489.94295138889</v>
       </c>
     </row>
     <row r="16">
@@ -814,6 +865,9 @@
       <c r="G16" t="n">
         <v>16</v>
       </c>
+      <c r="H16" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -836,6 +890,9 @@
       </c>
       <c r="G17" t="n">
         <v>16</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45489.94295138889</v>
       </c>
     </row>
     <row r="18">
@@ -855,10 +912,13 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45489.94295138889</v>
       </c>
     </row>
     <row r="19">
@@ -883,6 +943,9 @@
       <c r="G19" t="n">
         <v>14</v>
       </c>
+      <c r="H19" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -906,6 +969,9 @@
       <c r="G20" t="n">
         <v>16</v>
       </c>
+      <c r="H20" s="2" t="n">
+        <v>45489.94295138889</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -928,6 +994,9 @@
       </c>
       <c r="G21" t="n">
         <v>16</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45489.94295138889</v>
       </c>
     </row>
   </sheetData>

--- a/data/standing.xlsx
+++ b/data/standing.xlsx
@@ -502,7 +502,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +528,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="5">
@@ -580,7 +580,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="6">
@@ -606,7 +606,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="7">
@@ -632,7 +632,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="9">
@@ -684,7 +684,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="10">
@@ -710,7 +710,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="11">
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="12">
@@ -762,7 +762,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="13">
@@ -788,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="15">
@@ -840,7 +840,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="16">
@@ -866,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="17">
@@ -892,7 +892,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="18">
@@ -918,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="19">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="20">
@@ -970,7 +970,7 @@
         <v>16</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="21">
@@ -996,7 +996,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45489.94295138889</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
   </sheetData>

--- a/data/standing.xlsx
+++ b/data/standing.xlsx
@@ -502,7 +502,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +528,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="5">
@@ -580,7 +580,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="6">
@@ -606,7 +606,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="7">
@@ -632,7 +632,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="9">
@@ -684,7 +684,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="10">
@@ -710,7 +710,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="11">
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="12">
@@ -756,13 +756,13 @@
         <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="13">
@@ -788,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="15">
@@ -840,7 +840,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="16">
@@ -866,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="17">
@@ -892,7 +892,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="18">
@@ -918,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="19">
@@ -935,7 +935,7 @@
         <v>5926</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
         <v>11</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="20">
@@ -961,16 +961,16 @@
         <v>7314</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="21">
@@ -996,7 +996,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
   </sheetData>

--- a/data/standing.xlsx
+++ b/data/standing.xlsx
@@ -496,13 +496,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="5">
@@ -571,7 +571,7 @@
         <v>1955</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>30</v>
@@ -580,7 +580,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +597,16 @@
         <v>1981</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>1954</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>29</v>
@@ -632,7 +632,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="9">
@@ -684,7 +684,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="10">
@@ -701,7 +701,7 @@
         <v>1999</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
         <v>22</v>
@@ -710,7 +710,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="11">
@@ -727,7 +727,7 @@
         <v>1977</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
         <v>22</v>
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="12">
@@ -753,16 +753,16 @@
         <v>1974</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
         <v>17</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="13">
@@ -788,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="15">
@@ -840,7 +840,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="16">
@@ -863,10 +863,10 @@
         <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="17">
@@ -892,7 +892,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="18">
@@ -918,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="19">
@@ -935,16 +935,16 @@
         <v>5926</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="20">
@@ -961,16 +961,16 @@
         <v>7314</v>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
         <v>17</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
     <row r="21">
@@ -996,7 +996,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00302083333</v>
       </c>
     </row>
   </sheetData>

--- a/data/standing.xlsx
+++ b/data/standing.xlsx
@@ -502,7 +502,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +528,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="5">
@@ -568,10 +568,10 @@
         <v>58766</v>
       </c>
       <c r="D5" t="n">
-        <v>1955</v>
+        <v>1981</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>30</v>
@@ -580,7 +580,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="6">
@@ -594,10 +594,10 @@
         <v>58766</v>
       </c>
       <c r="D6" t="n">
-        <v>1981</v>
+        <v>1955</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>30</v>
@@ -606,7 +606,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="7">
@@ -632,7 +632,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="9">
@@ -684,7 +684,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="10">
@@ -698,19 +698,19 @@
         <v>58766</v>
       </c>
       <c r="D10" t="n">
-        <v>1999</v>
+        <v>1974</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="11">
@@ -724,10 +724,10 @@
         <v>58766</v>
       </c>
       <c r="D11" t="n">
-        <v>1977</v>
+        <v>1999</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
         <v>22</v>
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="12">
@@ -750,19 +750,19 @@
         <v>58766</v>
       </c>
       <c r="D12" t="n">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="13">
@@ -776,19 +776,19 @@
         <v>58766</v>
       </c>
       <c r="D13" t="n">
-        <v>1966</v>
+        <v>1980</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="14">
@@ -802,19 +802,19 @@
         <v>58766</v>
       </c>
       <c r="D14" t="n">
-        <v>1980</v>
+        <v>1966</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="15">
@@ -840,7 +840,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="16">
@@ -854,19 +854,19 @@
         <v>58766</v>
       </c>
       <c r="D16" t="n">
-        <v>1962</v>
+        <v>49202</v>
       </c>
       <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17</v>
+      </c>
+      <c r="G16" t="n">
         <v>16</v>
       </c>
-      <c r="F16" t="n">
-        <v>15</v>
-      </c>
-      <c r="G16" t="n">
-        <v>17</v>
-      </c>
       <c r="H16" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="17">
@@ -880,19 +880,19 @@
         <v>58766</v>
       </c>
       <c r="D17" t="n">
-        <v>49202</v>
+        <v>1962</v>
       </c>
       <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="n">
         <v>15</v>
       </c>
-      <c r="F17" t="n">
-        <v>17</v>
-      </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="18">
@@ -918,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="19">
@@ -944,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="20">
@@ -970,7 +970,7 @@
         <v>17</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="21">
@@ -996,7 +996,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45491.00302083333</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
   </sheetData>

--- a/data/standing.xlsx
+++ b/data/standing.xlsx
@@ -502,7 +502,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +528,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="5">
@@ -580,7 +580,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="6">
@@ -606,7 +606,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="7">
@@ -632,7 +632,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="9">
@@ -684,7 +684,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="10">
@@ -710,7 +710,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="11">
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="12">
@@ -762,7 +762,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="13">
@@ -788,7 +788,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="15">
@@ -840,7 +840,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="16">
@@ -866,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="17">
@@ -892,7 +892,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="18">
@@ -918,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="19">
@@ -944,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="20">
@@ -970,7 +970,7 @@
         <v>17</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="21">
@@ -996,7 +996,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45492.67336805556</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
   </sheetData>
